--- a/descriptives/micro_age_sex_table_2024.xlsx
+++ b/descriptives/micro_age_sex_table_2024.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AgeSexMoments" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2024" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1572 +436,1730 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Age Group</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Moment</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>ie (M)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>contribution (M)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pension (M)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ie (F)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>contribution (F)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pension (F)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>15–19</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9011.533311546382</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>991.2686642701019</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8997.997522902982</v>
       </c>
       <c r="H2" t="n">
+        <v>989.779727519328</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>15–19</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>6236.982049355163</v>
-      </c>
       <c r="D3" t="n">
-        <v>686.0680254290679</v>
+        <v>39271.29616255738</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>4319.842577881313</v>
       </c>
       <c r="F3" t="n">
-        <v>5445.733337347034</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>599.0306671081737</v>
+        <v>34289.18105511621</v>
       </c>
       <c r="H3" t="n">
+        <v>3771.809916062783</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>15–19</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>P90</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>19243.52409930158</v>
-      </c>
       <c r="D4" t="n">
-        <v>2116.787650923174</v>
+        <v>69617.21442071284</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7657.893586278414</v>
       </c>
       <c r="F4" t="n">
-        <v>18731.41634498495</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2060.455797948345</v>
+        <v>68095.70396401566</v>
       </c>
       <c r="H4" t="n">
+        <v>7490.527436041722</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>20–24</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>10033.03485667997</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1103.633834234797</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>9035.086986794873</v>
       </c>
       <c r="H5" t="n">
+        <v>993.8595685474362</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>20–24</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>6495.254114062765</v>
-      </c>
       <c r="D6" t="n">
-        <v>714.4779525469042</v>
+        <v>40897.51194556487</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4498.726314012137</v>
       </c>
       <c r="F6" t="n">
-        <v>6487.29429358228</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>713.6023722940508</v>
+        <v>40847.392775121</v>
       </c>
       <c r="H6" t="n">
+        <v>4493.213205263311</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>20–24</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>P90</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>22044.03973945402</v>
-      </c>
       <c r="D7" t="n">
-        <v>2424.844371339943</v>
+        <v>85265.39149581776</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>9379.193064539953</v>
       </c>
       <c r="F7" t="n">
-        <v>21424.63146855599</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2356.709461541159</v>
+        <v>97114.25363325309</v>
       </c>
       <c r="H7" t="n">
+        <v>10682.56789965784</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>25–29</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>10014.24064065325</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1101.566470471858</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>10013.00950615315</v>
       </c>
       <c r="H8" t="n">
+        <v>1101.431045676846</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>25–29</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>6728.922551385703</v>
-      </c>
       <c r="D9" t="n">
-        <v>740.1814806524274</v>
+        <v>42368.81048112698</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4660.569152923968</v>
       </c>
       <c r="F9" t="n">
-        <v>6864.090304412277</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>755.0499334853503</v>
+        <v>43219.89724210119</v>
       </c>
       <c r="H9" t="n">
+        <v>4754.188696631131</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>25–29</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>P90</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>20152.28851124554</v>
-      </c>
       <c r="D10" t="n">
-        <v>2216.751736237009</v>
+        <v>87755.15302798752</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>9653.066833078628</v>
       </c>
       <c r="F10" t="n">
-        <v>21892.66209349534</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2408.192830284488</v>
+        <v>86119.52450025035</v>
       </c>
       <c r="H10" t="n">
+        <v>9473.147695027537</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>30–34</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9675.710520432554</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1064.328157247581</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9395.20434192715</v>
       </c>
       <c r="H11" t="n">
+        <v>1033.472477611987</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>30–34</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>6791.449585962475</v>
-      </c>
       <c r="D12" t="n">
-        <v>747.059454455872</v>
+        <v>42762.5133383279</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>4703.87646721607</v>
       </c>
       <c r="F12" t="n">
-        <v>5597.200986959208</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>615.6921085655127</v>
+        <v>35242.90048810665</v>
       </c>
       <c r="H12" t="n">
+        <v>3876.719053691731</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>30–34</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>P90</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>23152.34598265099</v>
-      </c>
       <c r="D13" t="n">
-        <v>2546.758058091609</v>
+        <v>85422.07079469677</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>9396.427787416646</v>
       </c>
       <c r="F13" t="n">
-        <v>19390.07898899752</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2132.908688789727</v>
+        <v>74548.87838467737</v>
       </c>
       <c r="H13" t="n">
+        <v>8200.376622314508</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>35–39</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9570.244536493217</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1052.726899014254</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>10291.21177738618</v>
       </c>
       <c r="H14" t="n">
+        <v>1132.03329551248</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>35–39</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>6369.142214661052</v>
-      </c>
       <c r="D15" t="n">
-        <v>700.6056436127157</v>
+        <v>40103.44559403359</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>4411.379015343695</v>
       </c>
       <c r="F15" t="n">
-        <v>6695.882596009491</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>736.5470855610439</v>
+        <v>42160.77365195833</v>
       </c>
       <c r="H15" t="n">
+        <v>4637.685101715417</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>35–39</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>P90</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>21942.87677721514</v>
-      </c>
       <c r="D16" t="n">
-        <v>2413.716445493665</v>
+        <v>86335.18221359784</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>9496.870043495761</v>
       </c>
       <c r="F16" t="n">
-        <v>22372.55991359414</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2460.981590495356</v>
+        <v>85153.50145559474</v>
       </c>
       <c r="H16" t="n">
+        <v>9366.885160115424</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>40–44</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>11275.69993916897</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1240.326993308587</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>8119.950750140903</v>
       </c>
       <c r="H17" t="n">
+        <v>893.1945825154992</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>40–44</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>6349.498085361919</v>
-      </c>
       <c r="D18" t="n">
-        <v>698.444789389811</v>
+        <v>39979.7558945231</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>4397.77314839754</v>
       </c>
       <c r="F18" t="n">
-        <v>5639.544665698655</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>620.3499132268522</v>
+        <v>35509.51838750373</v>
       </c>
       <c r="H18" t="n">
+        <v>3906.047022625411</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>40–44</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>P90</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>21990.22720580359</v>
-      </c>
       <c r="D19" t="n">
-        <v>2418.924992638395</v>
+        <v>79598.64497727006</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>8755.850947499704</v>
       </c>
       <c r="F19" t="n">
-        <v>18600.27450227033</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2046.030195249737</v>
+        <v>65182.26406478312</v>
       </c>
       <c r="H19" t="n">
+        <v>7170.049047126144</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>45–49</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>9066.327028196853</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>997.2959731016539</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>9746.022825269385</v>
       </c>
       <c r="H20" t="n">
+        <v>1072.062510779632</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>45–49</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>6185.210971785332</v>
-      </c>
       <c r="D21" t="n">
-        <v>680.3732068963865</v>
+        <v>38945.31842977913</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>4283.985027275705</v>
       </c>
       <c r="F21" t="n">
-        <v>6061.94651129308</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>666.8141162422388</v>
+        <v>38169.18100664481</v>
       </c>
       <c r="H21" t="n">
+        <v>4198.609910730929</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>45–49</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>P90</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>20982.4655043812</v>
-      </c>
       <c r="D22" t="n">
-        <v>2308.071205481932</v>
+        <v>76477.03796794242</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>8412.474176473666</v>
       </c>
       <c r="F22" t="n">
-        <v>20809.15444564403</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2289.006989020844</v>
+        <v>69353.95031276143</v>
       </c>
       <c r="H22" t="n">
+        <v>7628.934534403758</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>50–54</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>9172.666223055472</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1008.993284536102</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>8992.783294340617</v>
       </c>
       <c r="H23" t="n">
+        <v>989.206162377468</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>50–54</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>6984.629618359902</v>
-      </c>
       <c r="D24" t="n">
-        <v>768.3092580195893</v>
+        <v>43978.87570176597</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4837.676327194257</v>
       </c>
       <c r="F24" t="n">
-        <v>6260.195943912161</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>688.6215538303378</v>
+        <v>39417.46296457803</v>
       </c>
       <c r="H24" t="n">
+        <v>4335.920926103583</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>50–54</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>P90</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>21672.45529303116</v>
-      </c>
       <c r="D25" t="n">
-        <v>2383.970082233428</v>
+        <v>86504.80469753547</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>9515.5285167289</v>
       </c>
       <c r="F25" t="n">
-        <v>21062.21829861553</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2316.844012847709</v>
+        <v>76588.41753611619</v>
       </c>
       <c r="H25" t="n">
+        <v>8424.725928972781</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>55–59</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>10993.28512639772</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1209.261363903749</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>8640.839079021302</v>
       </c>
       <c r="H26" t="n">
+        <v>950.4922986923432</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>55–59</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>6559.482487669571</v>
-      </c>
       <c r="D27" t="n">
-        <v>721.5430736436529</v>
+        <v>41301.9273398864</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>4543.212007387505</v>
       </c>
       <c r="F27" t="n">
-        <v>5281.26293963546</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>580.9389233599006</v>
+        <v>33253.58953480285</v>
       </c>
       <c r="H27" t="n">
+        <v>3657.894848828313</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>55–59</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>P90</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>20878.22370944199</v>
-      </c>
       <c r="D28" t="n">
-        <v>2296.60460803862</v>
+        <v>92433.83689132846</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>10167.72205804613</v>
       </c>
       <c r="F28" t="n">
-        <v>19548.38730432761</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2150.322603476037</v>
+        <v>66786.47796646736</v>
       </c>
       <c r="H28" t="n">
+        <v>7346.512576311409</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>60–64</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>10774.91484107363</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>10706.03100953266</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>60–64</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>24100.79811979402</v>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>25783.45295482548</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>60–64</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>P90</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>40928.34614974209</v>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>44299.11607728372</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>65–69</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>11209.21912604591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>12034.10934172148</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>65–69</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>25873.33353727555</v>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>25850.69201140138</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>65–69</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>P90</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>43748.06169867169</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>42626.02709693105</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>70–74</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>11788.18088541256</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>10316.80594418</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>70–74</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>27215.94413608481</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>25323.10396971624</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>70–74</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>P90</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>43984.3934687934</v>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>45423.09607491815</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>75–79</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>10247.87000901446</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>9312.814764897599</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>75–79</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>25140.03154805427</v>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>23103.15942628161</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>75–79</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>P90</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>41888.66022621797</v>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>39065.54114004778</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>80–84</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>12410.82811499467</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>11288.45637195453</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>80–84</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>29808.0301773034</v>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>28715.1136400314</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>80–84</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>P90</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>50485.75028812954</v>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>48383.59952740862</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>85–89</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>13444.21048708802</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>9114.316533191715</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>85–89</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>31285.74986825099</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>22318.00465980874</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>85–89</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>P90</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>46041.91276325885</v>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>37752.45996973651</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>90–94</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>9737.699158985524</v>
       </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>13137.45132991024</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>90–94</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>26563.08688631153</v>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>31467.10213971095</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>90–94</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>P90</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>45192.45244221959</v>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>57038.96750786332</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>95+</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>12056.70351986738</v>
       </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>12929.41016261736</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>95+</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>23707.75221444021</v>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>27215.52922105249</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>95+</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>P90</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
         <v>35924.84099388748</v>
       </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>49017.1143146015</v>
       </c>
     </row>
